--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121142a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121142a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2351375676452541</v>
+      </c>
+      <c r="D5">
+        <v>0.2687091507700962</v>
+      </c>
+      <c r="E5">
+        <v>1.300119409222843</v>
+      </c>
+      <c r="F5">
+        <v>0.3749664670387379</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2351375676452541</v>
+        <v>0.7743829471383503</v>
       </c>
       <c r="D6">
-        <v>0.2687091507700962</v>
+        <v>0.8427402165268794</v>
       </c>
       <c r="E6">
-        <v>1.300119409222843</v>
+        <v>5.790972204618941</v>
       </c>
       <c r="F6">
-        <v>0.3749664670387379</v>
+        <v>1.475210425089396</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7743829471383503</v>
+        <v>0.9502378236401319</v>
       </c>
       <c r="D7">
-        <v>0.8427402165268794</v>
+        <v>1.059495296179606</v>
       </c>
       <c r="E7">
-        <v>5.790972204618941</v>
+        <v>3.603307877571969</v>
       </c>
       <c r="F7">
-        <v>1.475210425089396</v>
+        <v>1.475078378284925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.650115974617826</v>
+      </c>
+      <c r="D8">
+        <v>2.831328470007635</v>
+      </c>
+      <c r="E8">
+        <v>10.3104859347857</v>
+      </c>
+      <c r="F8">
+        <v>5.040509640552669</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.9502378236401319</v>
+        <v>2.213563441797477</v>
       </c>
       <c r="D9">
-        <v>1.059495296179606</v>
+        <v>2.731788538953448</v>
       </c>
       <c r="E9">
-        <v>3.603307877571969</v>
+        <v>16.98520061492962</v>
       </c>
       <c r="F9">
-        <v>1.475078378284925</v>
+        <v>3.74871751296552</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.650115974617826</v>
+        <v>2.155256824903796</v>
       </c>
       <c r="D10">
-        <v>2.831328470007635</v>
+        <v>1.823647555855334</v>
       </c>
       <c r="E10">
-        <v>10.3104859347857</v>
+        <v>8.071980098632066</v>
       </c>
       <c r="F10">
-        <v>5.040509640552669</v>
+        <v>3.058808899184719</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.213563441797477</v>
+        <v>2.194761811658889</v>
       </c>
       <c r="D11">
-        <v>2.731788538953448</v>
+        <v>2.244631110132929</v>
       </c>
       <c r="E11">
-        <v>16.98520061492962</v>
+        <v>9.899199346754674</v>
       </c>
       <c r="F11">
-        <v>3.74871751296552</v>
+        <v>3.241183040534584</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.155256824903796</v>
+        <v>1.608498983221892</v>
       </c>
       <c r="D12">
-        <v>1.823647555855334</v>
+        <v>1.991624165415291</v>
       </c>
       <c r="E12">
-        <v>8.071980098632066</v>
+        <v>5.691554845561469</v>
       </c>
       <c r="F12">
-        <v>3.058808899184719</v>
+        <v>2.386261634043573</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.194761811658889</v>
+        <v>5.495136677170593</v>
       </c>
       <c r="D13">
-        <v>2.244631110132929</v>
+        <v>5.579689692802639</v>
       </c>
       <c r="E13">
-        <v>9.899199346754674</v>
+        <v>10.72226246598816</v>
       </c>
       <c r="F13">
-        <v>3.241183040534584</v>
+        <v>6.876013098655708</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.608498983221892</v>
+        <v>1.235701379173366</v>
       </c>
       <c r="D14">
-        <v>1.991624165415291</v>
+        <v>1.59834994796687</v>
       </c>
       <c r="E14">
-        <v>5.691554845561469</v>
+        <v>8.679338505656196</v>
       </c>
       <c r="F14">
-        <v>2.386261634043573</v>
+        <v>2.521681687702769</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.495136677170593</v>
+        <v>0.5622809971981676</v>
       </c>
       <c r="D15">
-        <v>5.579689692802639</v>
+        <v>0.6423907022014658</v>
       </c>
       <c r="E15">
-        <v>10.72226246598816</v>
+        <v>2.751321257590744</v>
       </c>
       <c r="F15">
-        <v>6.876013098655708</v>
+        <v>0.8236002488138122</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.235701379173366</v>
+        <v>2.508994692220548</v>
       </c>
       <c r="D16">
-        <v>1.59834994796687</v>
+        <v>2.484254142840038</v>
       </c>
       <c r="E16">
-        <v>8.679338505656196</v>
+        <v>16.50105998073565</v>
       </c>
       <c r="F16">
-        <v>2.521681687702769</v>
+        <v>3.222760423628118</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5622809971981676</v>
+        <v>1.96207520235416</v>
       </c>
       <c r="D17">
-        <v>0.6423907022014658</v>
+        <v>2.128482393627408</v>
       </c>
       <c r="E17">
-        <v>2.751321257590744</v>
+        <v>11.03523409993222</v>
       </c>
       <c r="F17">
-        <v>0.8236002488138122</v>
+        <v>3.534880975784349</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.508994692220548</v>
+        <v>1.073105935514596</v>
       </c>
       <c r="D18">
-        <v>2.484254142840038</v>
+        <v>1.229309115264274</v>
       </c>
       <c r="E18">
-        <v>16.50105998073565</v>
+        <v>6.110944552659125</v>
       </c>
       <c r="F18">
-        <v>3.222760423628118</v>
+        <v>1.727806879726002</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.96207520235416</v>
+        <v>2.251793490211842</v>
       </c>
       <c r="D19">
-        <v>2.128482393627408</v>
+        <v>2.709015405897235</v>
       </c>
       <c r="E19">
-        <v>11.03523409993222</v>
+        <v>11.09863264634441</v>
       </c>
       <c r="F19">
-        <v>3.534880975784349</v>
+        <v>3.424359530451687</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.073105935514596</v>
+        <v>1.4406968412543</v>
       </c>
       <c r="D20">
-        <v>1.229309115264274</v>
+        <v>1.569667916427776</v>
       </c>
       <c r="E20">
-        <v>6.110944552659125</v>
+        <v>13.13793668995809</v>
       </c>
       <c r="F20">
-        <v>1.727806879726002</v>
+        <v>1.598844020502173</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.251793490211842</v>
+        <v>1.369218241054496</v>
       </c>
       <c r="D21">
-        <v>2.709015405897235</v>
+        <v>1.96106068413471</v>
       </c>
       <c r="E21">
-        <v>11.09863264634441</v>
+        <v>5.53665681399935</v>
       </c>
       <c r="F21">
-        <v>3.424359530451687</v>
+        <v>1.747854372957253</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.4406968412543</v>
+        <v>2.465954509343227</v>
       </c>
       <c r="D22">
-        <v>1.569667916427776</v>
+        <v>2.68081752139654</v>
       </c>
       <c r="E22">
-        <v>13.13793668995809</v>
+        <v>10.19527398306034</v>
       </c>
       <c r="F22">
-        <v>1.598844020502173</v>
+        <v>2.769435665846284</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.369218241054496</v>
+        <v>1.893786738137759</v>
       </c>
       <c r="D23">
-        <v>1.96106068413471</v>
+        <v>2.105394227793894</v>
       </c>
       <c r="E23">
-        <v>5.53665681399935</v>
+        <v>6.942065972517969</v>
       </c>
       <c r="F23">
-        <v>1.747854372957253</v>
+        <v>2.863623823418523</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.465954509343227</v>
+        <v>1.07550396765912</v>
       </c>
       <c r="D24">
-        <v>2.68081752139654</v>
+        <v>1.232600968345491</v>
       </c>
       <c r="E24">
-        <v>10.19527398306034</v>
+        <v>4.428553857477925</v>
       </c>
       <c r="F24">
-        <v>2.769435665846284</v>
+        <v>1.846474477038249</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.893786738137759</v>
+        <v>0.3276018271620247</v>
       </c>
       <c r="D25">
-        <v>2.105394227793894</v>
+        <v>0.3916768712763936</v>
       </c>
       <c r="E25">
-        <v>6.942065972517969</v>
+        <v>2.174292303009968</v>
       </c>
       <c r="F25">
-        <v>2.863623823418523</v>
+        <v>0.544191943265478</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.07550396765912</v>
+        <v>0.5337726862860066</v>
       </c>
       <c r="D26">
-        <v>1.232600968345491</v>
+        <v>0.6397935901570073</v>
       </c>
       <c r="E26">
-        <v>4.428553857477925</v>
+        <v>4.342354748527933</v>
       </c>
       <c r="F26">
-        <v>1.846474477038249</v>
+        <v>0.9761560842303081</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.3276018271620247</v>
+        <v>1.363918578742454</v>
       </c>
       <c r="D27">
-        <v>0.3916768712763936</v>
+        <v>1.894506520402211</v>
       </c>
       <c r="E27">
-        <v>2.174292303009968</v>
+        <v>9.557243464239324</v>
       </c>
       <c r="F27">
-        <v>0.544191943265478</v>
+        <v>2.55524992080748</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.5337726862860066</v>
+        <v>0.7150811074575029</v>
       </c>
       <c r="D28">
-        <v>0.6397935901570073</v>
+        <v>0.7755849580030567</v>
       </c>
       <c r="E28">
-        <v>4.342354748527933</v>
+        <v>3.695187423801364</v>
       </c>
       <c r="F28">
-        <v>0.9761560842303081</v>
+        <v>0.9737989031918537</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1.363918578742454</v>
+        <v>0.5021697012267081</v>
       </c>
       <c r="D29">
-        <v>1.894506520402211</v>
+        <v>0.6104552831602522</v>
       </c>
       <c r="E29">
-        <v>9.557243464239324</v>
+        <v>3.233139331973615</v>
       </c>
       <c r="F29">
-        <v>2.55524992080748</v>
+        <v>0.854351339806567</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.7150811074575029</v>
+        <v>0.5598344749924568</v>
       </c>
       <c r="D30">
-        <v>0.7755849580030567</v>
+        <v>0.6836587233311396</v>
       </c>
       <c r="E30">
-        <v>3.695187423801364</v>
+        <v>3.687594193085428</v>
       </c>
       <c r="F30">
-        <v>0.9737989031918537</v>
+        <v>1.063122522499698</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.5021697012267081</v>
+        <v>0.8718297348391802</v>
       </c>
       <c r="D31">
-        <v>0.6104552831602522</v>
+        <v>0.9691970428761711</v>
       </c>
       <c r="E31">
-        <v>3.233139331973615</v>
+        <v>4.790478764070421</v>
       </c>
       <c r="F31">
-        <v>0.854351339806567</v>
+        <v>1.556673581644451</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.5598344749924568</v>
+        <v>1.421801109133856</v>
       </c>
       <c r="D32">
-        <v>0.6836587233311396</v>
+        <v>1.944488348388732</v>
       </c>
       <c r="E32">
-        <v>3.687594193085428</v>
+        <v>11.39142037371344</v>
       </c>
       <c r="F32">
-        <v>1.063122522499698</v>
+        <v>2.940464580933766</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.8718297348391802</v>
+        <v>0.7839595171121081</v>
       </c>
       <c r="D33">
-        <v>0.9691970428761711</v>
+        <v>0.8915292781454752</v>
       </c>
       <c r="E33">
-        <v>4.790478764070421</v>
+        <v>5.283689565424852</v>
       </c>
       <c r="F33">
-        <v>1.556673581644451</v>
+        <v>1.501509640975319</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.421801109133856</v>
+        <v>0.751379036935516</v>
       </c>
       <c r="D34">
-        <v>1.944488348388732</v>
+        <v>0.8007086565639715</v>
       </c>
       <c r="E34">
-        <v>11.39142037371344</v>
+        <v>3.286431774378431</v>
       </c>
       <c r="F34">
-        <v>2.940464580933766</v>
+        <v>1.403679533274329</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.7839595171121081</v>
+        <v>1.340684391465353</v>
       </c>
       <c r="D35">
-        <v>0.8915292781454752</v>
+        <v>1.47600077379412</v>
       </c>
       <c r="E35">
-        <v>5.283689565424852</v>
+        <v>7.001909256458671</v>
       </c>
       <c r="F35">
-        <v>1.501509640975319</v>
+        <v>2.495611307004783</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.751379036935516</v>
+        <v>2.217080369994011</v>
       </c>
       <c r="D36">
-        <v>0.8007086565639715</v>
+        <v>2.170766421857308</v>
       </c>
       <c r="E36">
-        <v>3.286431774378431</v>
+        <v>8.876024776639987</v>
       </c>
       <c r="F36">
-        <v>1.403679533274329</v>
+        <v>4.194403567534234</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.340684391465353</v>
+        <v>1.154325774523361</v>
       </c>
       <c r="D37">
-        <v>1.47600077379412</v>
+        <v>1.292655561826047</v>
       </c>
       <c r="E37">
-        <v>7.001909256458671</v>
+        <v>5.490058631622436</v>
       </c>
       <c r="F37">
-        <v>2.495611307004783</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>2.217080369994011</v>
-      </c>
-      <c r="D38">
-        <v>2.170766421857308</v>
-      </c>
-      <c r="E38">
-        <v>8.876024776639987</v>
-      </c>
-      <c r="F38">
-        <v>4.194403567534234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1.154325774523361</v>
-      </c>
-      <c r="D39">
-        <v>1.292655561826047</v>
-      </c>
-      <c r="E39">
-        <v>5.490058631622436</v>
-      </c>
-      <c r="F39">
         <v>2.21471679186268</v>
       </c>
     </row>
